--- a/tables/components.xlsx
+++ b/tables/components.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMRO\Documents\projects\uvonline\UV-ONLINE_docs\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="27315" windowHeight="13110"/>
+    <workbookView xWindow="1170" yWindow="140" windowWidth="27320" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="connections" sheetId="2" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Componente</t>
   </si>
@@ -139,13 +144,28 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>RPWM</t>
+  </si>
+  <si>
+    <t>LPWM</t>
+  </si>
+  <si>
+    <t>R_EN</t>
+  </si>
+  <si>
+    <t>L_EN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +189,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -203,6 +243,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -213,6 +259,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -261,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,106 +554,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="8">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="8">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="8">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="8">
         <v>10</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="8">
         <v>11</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="8">
         <v>12</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="8">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,18 +699,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
     <col min="7" max="7" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -654,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -682,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -705,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -725,7 +804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -745,37 +824,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -794,7 +873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/components.xlsx
+++ b/tables/components.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMRO\Documents\projects\uvonline\UV-ONLINE_docs\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="140" windowWidth="27320" windowHeight="13110"/>
+    <workbookView xWindow="1170" yWindow="135" windowWidth="27315" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="connections" sheetId="2" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Componente</t>
   </si>
@@ -159,6 +154,15 @@
   </si>
   <si>
     <t>L_EN</t>
+  </si>
+  <si>
+    <t>Servos</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>Brk</t>
   </si>
 </sst>
 </file>
@@ -310,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,24 +558,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -636,54 +640,71 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" s="6" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -699,18 +720,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -804,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -824,37 +845,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="17" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="18" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="19" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="20" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="21" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="22" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="23" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="24" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="25" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="26" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="27" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="28" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="29" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="30" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="31" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="32" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="33" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="34" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="35" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="36" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="37" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -873,7 +894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
